--- a/src/Chemistry/Chem4Word.Model/Resources/PeriodicTable.xlsx
+++ b/src/Chemistry/Chem4Word.Model/Resources/PeriodicTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\vso\chem4word\Version3\src\Chemistry\Chem4Word.Model\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\vso\chem4word\Version3-1\src\Chemistry\Chem4Word.Model\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="PeriodicTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PeriodicTable!$A$1:$M$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PeriodicTable!$A$1:$M$125</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="432">
   <si>
     <t>Symbol</t>
   </si>
@@ -1252,54 +1252,6 @@
   </si>
   <si>
     <t>other</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
   </si>
   <si>
     <t>Nh</t>
@@ -2215,13 +2167,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q147"/>
+  <dimension ref="A1:Q131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,7 +2246,7 @@
         <v>394</v>
       </c>
       <c r="Q1" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2326,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="str">
-        <f>CONCATENATE("public Element ", A2, " { get; private set; } // ",B2," - Atomic Number ", C2)</f>
+        <f t="shared" ref="Q2:Q17" si="0">CONCATENATE("public Element ", A2, " { get; private set; } // ",B2," - Atomic Number ", C2)</f>
         <v>public Element Du { get; private set; } // Dummy - Atomic Number 0</v>
       </c>
     </row>
@@ -2359,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="str">
-        <f>CONCATENATE("public Element ", A3, " { get; private set; } // ",B3," - Atomic Number ", C3)</f>
+        <f t="shared" si="0"/>
         <v>public Element M { get; private set; } // Metal - Atomic Number 0</v>
       </c>
     </row>
@@ -2392,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="str">
-        <f>CONCATENATE("public Element ", A4, " { get; private set; } // ",B4," - Atomic Number ", C4)</f>
+        <f t="shared" si="0"/>
         <v>public Element R { get; private set; } // Residue - Atomic Number 0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2425,19 +2377,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="str">
-        <f>CONCATENATE("public Element ", A5, " { get; private set; } // ",B5," - Atomic Number ", C5)</f>
-        <v>public Element R1 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element X { get; private set; } // Halogen - Atomic Number 0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -2455,22 +2407,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="str">
-        <f>CONCATENATE("public Element ", A6, " { get; private set; } // ",B6," - Atomic Number ", C6)</f>
-        <v>public Element R2 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element D { get; private set; } // Deuterium - Atomic Number 1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -2479,31 +2431,52 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.0079400000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>399</v>
       </c>
       <c r="Q7" t="str">
-        <f>CONCATENATE("public Element ", A7, " { get; private set; } // ",B7," - Atomic Number ", C7)</f>
-        <v>public Element R3 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element H { get; private set; } // Hydrogen - Atomic Number 1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -2518,607 +2491,892 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="str">
-        <f>CONCATENATE("public Element ", A8, " { get; private set; } // ",B8," - Atomic Number ", C8)</f>
-        <v>public Element R4 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element T { get; private set; } // Tritium - Atomic Number 1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.0026020000000004</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9">
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>17</v>
+      </c>
+      <c r="P9" t="s">
+        <v>400</v>
       </c>
       <c r="Q9" t="str">
-        <f>CONCATENATE("public Element ", A9, " { get; private set; } // ",B9," - Atomic Number ", C9)</f>
-        <v>public Element R5 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element He { get; private set; } // Helium - Atomic Number 2</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.9409999999999998</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>401</v>
       </c>
       <c r="Q10" t="str">
-        <f>CONCATENATE("public Element ", A10, " { get; private set; } // ",B10," - Atomic Number ", C10)</f>
-        <v>public Element R6 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element Li { get; private set; } // Lithium - Atomic Number 3</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>9.0121819999999992</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>402</v>
       </c>
       <c r="Q11" t="str">
-        <f>CONCATENATE("public Element ", A11, " { get; private set; } // ",B11," - Atomic Number ", C11)</f>
-        <v>public Element R7 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element Be { get; private set; } // Beryllium - Atomic Number 4</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>0.84</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>10.811</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L12">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>12</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="P12" t="s">
+        <v>403</v>
       </c>
       <c r="Q12" t="str">
-        <f>CONCATENATE("public Element ", A12, " { get; private set; } // ",B12," - Atomic Number ", C12)</f>
-        <v>public Element R8 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element B { get; private set; } // Boron - Atomic Number 5</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>0.76</v>
+      </c>
+      <c r="G13">
+        <v>1.7</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>12.010999999999999</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="K13" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L13">
+        <v>14</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>13</v>
+      </c>
+      <c r="P13" t="s">
+        <v>399</v>
       </c>
       <c r="Q13" t="str">
-        <f>CONCATENATE("public Element ", A13, " { get; private set; } // ",B13," - Atomic Number ", C13)</f>
-        <v>public Element R9 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element C { get; private set; } // Carbon - Atomic Number 6</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14.006740000000001</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+      <c r="P14" t="s">
+        <v>399</v>
       </c>
       <c r="Q14" t="str">
-        <f>CONCATENATE("public Element ", A14, " { get; private set; } // ",B14," - Atomic Number ", C14)</f>
-        <v>public Element R10 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element N { get; private set; } // Nitrogen - Atomic Number 7</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.9994</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>399</v>
       </c>
       <c r="Q15" t="str">
-        <f>CONCATENATE("public Element ", A15, " { get; private set; } // ",B15," - Atomic Number ", C15)</f>
-        <v>public Element R11 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element O { get; private set; } // Oxygen - Atomic Number 8</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>18.998403199999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>19</v>
+      </c>
+      <c r="L16">
+        <v>17</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>16</v>
+      </c>
+      <c r="P16" t="s">
+        <v>404</v>
       </c>
       <c r="Q16" t="str">
-        <f>CONCATENATE("public Element ", A16, " { get; private set; } // ",B16," - Atomic Number ", C16)</f>
-        <v>public Element R12 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element F { get; private set; } // Fluorine - Atomic Number 9</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.1797</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>17</v>
+      </c>
+      <c r="P17" t="s">
+        <v>400</v>
       </c>
       <c r="Q17" t="str">
-        <f>CONCATENATE("public Element ", A17, " { get; private set; } // ",B17," - Atomic Number ", C17)</f>
-        <v>public Element R13 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="0"/>
+        <v>public Element Ne { get; private set; } // Neon - Atomic Number 10</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
         <v>11</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>22.989768000000002</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>401</v>
       </c>
       <c r="Q18" t="str">
-        <f>CONCATENATE("public Element ", A18, " { get; private set; } // ",B18," - Atomic Number ", C18)</f>
-        <v>public Element R14 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" ref="Q18:Q49" si="1">CONCATENATE("public Element ", A18, " { get; private set; } // ",B18," - Atomic Number ", C18)</f>
+        <v>public Element Na { get; private set; } // Sodium - Atomic Number 11</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>24.305</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>402</v>
       </c>
       <c r="Q19" t="str">
-        <f>CONCATENATE("public Element ", A19, " { get; private set; } // ",B19," - Atomic Number ", C19)</f>
-        <v>public Element R15 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="1"/>
+        <v>public Element Mg { get; private set; } // Magnesium - Atomic Number 12</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>1.21</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>26.981539000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
         <v>12</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+      <c r="P20" t="s">
+        <v>405</v>
       </c>
       <c r="Q20" t="str">
-        <f>CONCATENATE("public Element ", A20, " { get; private set; } // ",B20," - Atomic Number ", C20)</f>
-        <v>public Element R16 { get; private set; } // Residue - Atomic Number 0</v>
+        <f t="shared" si="1"/>
+        <v>public Element Al { get; private set; } // Aluminum - Atomic Number 13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>28.0855</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>13</v>
+      </c>
+      <c r="P21" t="s">
+        <v>403</v>
       </c>
       <c r="Q21" t="str">
-        <f>CONCATENATE("public Element ", A21, " { get; private set; } // ",B21," - Atomic Number ", C21)</f>
-        <v>public Element X { get; private set; } // Halogen - Atomic Number 0</v>
+        <f t="shared" si="1"/>
+        <v>public Element Si { get; private set; } // Silicon - Atomic Number 14</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
+        <v>30.973762000000001</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
         <v>2</v>
       </c>
+      <c r="O22">
+        <v>14</v>
+      </c>
+      <c r="P22" t="s">
+        <v>399</v>
+      </c>
       <c r="Q22" t="str">
-        <f>CONCATENATE("public Element ", A22, " { get; private set; } // ",B22," - Atomic Number ", C22)</f>
-        <v>public Element D { get; private set; } // Deuterium - Atomic Number 1</v>
+        <f t="shared" si="1"/>
+        <v>public Element P { get; private set; } // Phosphorus - Atomic Number 15</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23" t="b">
         <v>1</v>
       </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F23">
-        <v>0.31</v>
+        <v>1.05</v>
       </c>
       <c r="G23">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1.0079400000000001</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>188</v>
+        <v>32.066000000000003</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P23" t="s">
         <v>399</v>
       </c>
       <c r="Q23" t="str">
-        <f>CONCATENATE("public Element ", A23, " { get; private set; } // ",B23," - Atomic Number ", C23)</f>
-        <v>public Element H { get; private set; } // Hydrogen - Atomic Number 1</v>
+        <f t="shared" si="1"/>
+        <v>public Element S { get; private set; } // Sulfur - Atomic Number 16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>35.4527</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L24">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>16</v>
+      </c>
+      <c r="P24" t="s">
+        <v>404</v>
       </c>
       <c r="Q24" t="str">
-        <f>CONCATENATE("public Element ", A24, " { get; private set; } // ",B24," - Atomic Number ", C24)</f>
-        <v>public Element T { get; private set; } // Tritium - Atomic Number 1</v>
+        <f t="shared" si="1"/>
+        <v>public Element Cl { get; private set; } // Chlorine - Atomic Number 17</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F25">
-        <v>0.28000000000000003</v>
+        <v>1.06</v>
       </c>
       <c r="G25">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.0026020000000004</v>
+        <v>39.948</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="L25">
         <v>18</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25">
         <v>17</v>
@@ -3127,37 +3385,37 @@
         <v>400</v>
       </c>
       <c r="Q25" t="str">
-        <f>CONCATENATE("public Element ", A25, " { get; private set; } // ",B25," - Atomic Number ", C25)</f>
-        <v>public Element He { get; private set; } // Helium - Atomic Number 2</v>
+        <f t="shared" si="1"/>
+        <v>public Element Ar { get; private set; } // Argon - Atomic Number 18</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F26">
-        <v>1.28</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G26">
-        <v>1.82</v>
+        <v>2.75</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>6.9409999999999998</v>
+        <v>39.098300000000002</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -3166,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3178,37 +3436,37 @@
         <v>401</v>
       </c>
       <c r="Q26" t="str">
-        <f>CONCATENATE("public Element ", A26, " { get; private set; } // ",B26," - Atomic Number ", C26)</f>
-        <v>public Element Li { get; private set; } // Lithium - Atomic Number 3</v>
+        <f t="shared" si="1"/>
+        <v>public Element K { get; private set; } // Potassium - Atomic Number 19</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="F27">
-        <v>0.96</v>
+        <v>1.76</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>9.0121819999999992</v>
+        <v>40.078000000000003</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
@@ -3217,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -3229,775 +3487,757 @@
         <v>402</v>
       </c>
       <c r="Q27" t="str">
-        <f>CONCATENATE("public Element ", A27, " { get; private set; } // ",B27," - Atomic Number ", C27)</f>
-        <v>public Element Be { get; private set; } // Beryllium - Atomic Number 4</v>
+        <f t="shared" si="1"/>
+        <v>public Element Ca { get; private set; } // Calcium - Atomic Number 20</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F28">
-        <v>0.84</v>
+        <v>1.7</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>10.811</v>
+        <v>44.955910000000003</v>
       </c>
       <c r="J28" s="1">
         <v>3</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="L28">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
         <v>2</v>
       </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>12</v>
-      </c>
       <c r="P28" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q28" t="str">
-        <f>CONCATENATE("public Element ", A28, " { get; private set; } // ",B28," - Atomic Number ", C28)</f>
-        <v>public Element B { get; private set; } // Boron - Atomic Number 5</v>
+        <f t="shared" si="1"/>
+        <v>public Element Sc { get; private set; } // Scandium - Atomic Number 21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29">
+        <v>1.6</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29">
-        <v>0.76</v>
-      </c>
-      <c r="G29">
-        <v>1.7</v>
-      </c>
-      <c r="H29">
+      <c r="I29">
+        <v>47.88</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29">
         <v>4</v>
       </c>
-      <c r="I29">
-        <v>12.010999999999999</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="L29">
-        <v>14</v>
-      </c>
       <c r="M29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P29" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q29" t="str">
-        <f>CONCATENATE("public Element ", A29, " { get; private set; } // ",B29," - Atomic Number ", C29)</f>
-        <v>public Element C { get; private set; } // Carbon - Atomic Number 6</v>
+        <f t="shared" si="1"/>
+        <v>public Element Ti { get; private set; } // Titanium - Atomic Number 22</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30">
+        <v>1.53</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30">
-        <v>0.71</v>
-      </c>
-      <c r="G30">
-        <v>1.55</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
       <c r="I30">
-        <v>14.006740000000001</v>
+        <v>50.941499999999998</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>391</v>
+        <v>95</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P30" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q30" t="str">
-        <f>CONCATENATE("public Element ", A30, " { get; private set; } // ",B30," - Atomic Number ", C30)</f>
-        <v>public Element N { get; private set; } // Nitrogen - Atomic Number 7</v>
+        <f t="shared" si="1"/>
+        <v>public Element V { get; private set; } // Vanadium - Atomic Number 23</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F31">
-        <v>0.66</v>
+        <v>1.39</v>
       </c>
       <c r="G31">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>15.9994</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>389</v>
+        <v>51.996099999999998</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P31" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q31" t="str">
-        <f>CONCATENATE("public Element ", A31, " { get; private set; } // ",B31," - Atomic Number ", C31)</f>
-        <v>public Element O { get; private set; } // Oxygen - Atomic Number 8</v>
+        <f t="shared" si="1"/>
+        <v>public Element Cr { get; private set; } // Chromium - Atomic Number 24</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F32">
-        <v>0.56999999999999995</v>
+        <v>1.39</v>
       </c>
       <c r="G32">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>18.998403199999998</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1">
-        <v>19</v>
+        <v>54.938049999999997</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P32" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q32" t="str">
-        <f>CONCATENATE("public Element ", A32, " { get; private set; } // ",B32," - Atomic Number ", C32)</f>
-        <v>public Element F { get; private set; } // Fluorine - Atomic Number 9</v>
+        <f t="shared" si="1"/>
+        <v>public Element Mn { get; private set; } // Manganese - Atomic Number 25</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F33">
-        <v>0.57999999999999996</v>
+        <v>1.32</v>
       </c>
       <c r="G33">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>20.1797</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0</v>
+        <v>55.847000000000001</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P33" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q33" t="str">
-        <f>CONCATENATE("public Element ", A33, " { get; private set; } // ",B33," - Atomic Number ", C33)</f>
-        <v>public Element Ne { get; private set; } // Neon - Atomic Number 10</v>
+        <f t="shared" si="1"/>
+        <v>public Element Fe { get; private set; } // Iron - Atomic Number 26</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F34">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="G34">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>22.989768000000002</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1</v>
+        <v>58.933199999999999</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P34" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q34" t="str">
-        <f>CONCATENATE("public Element ", A34, " { get; private set; } // ",B34," - Atomic Number ", C34)</f>
-        <v>public Element Na { get; private set; } // Sodium - Atomic Number 11</v>
+        <f t="shared" si="1"/>
+        <v>public Element Co { get; private set; } // Cobalt - Atomic Number 27</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F35">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="G35">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>24.305</v>
-      </c>
-      <c r="J35" s="1">
-        <v>2</v>
+        <v>58.693399999999997</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P35" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q35" t="str">
-        <f>CONCATENATE("public Element ", A35, " { get; private set; } // ",B35," - Atomic Number ", C35)</f>
-        <v>public Element Mg { get; private set; } // Magnesium - Atomic Number 12</v>
+        <f t="shared" si="1"/>
+        <v>public Element Ni { get; private set; } // Nickel - Atomic Number 28</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="F36">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>26.981539000000001</v>
-      </c>
-      <c r="J36" s="1">
-        <v>3</v>
+        <v>63.545999999999999</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P36" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q36" t="str">
-        <f>CONCATENATE("public Element ", A36, " { get; private set; } // ",B36," - Atomic Number ", C36)</f>
-        <v>public Element Al { get; private set; } // Aluminum - Atomic Number 13</v>
+        <f t="shared" si="1"/>
+        <v>public Element Cu { get; private set; } // Copper - Atomic Number 29</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F37">
-        <v>1.1100000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="G37">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>65.39</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>12</v>
+      </c>
+      <c r="M37">
         <v>4</v>
       </c>
-      <c r="I37">
-        <v>28.0855</v>
-      </c>
-      <c r="J37" s="1">
-        <v>4</v>
-      </c>
-      <c r="L37">
-        <v>14</v>
-      </c>
-      <c r="M37">
-        <v>3</v>
-      </c>
       <c r="N37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O37">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P37" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q37" t="str">
-        <f>CONCATENATE("public Element ", A37, " { get; private set; } // ",B37," - Atomic Number ", C37)</f>
-        <v>public Element Si { get; private set; } // Silicon - Atomic Number 14</v>
+        <f t="shared" si="1"/>
+        <v>public Element Zn { get; private set; } // Zinc - Atomic Number 30</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="F38">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="G38">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>30.973762000000001</v>
+        <v>69.722999999999999</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P38" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q38" t="str">
-        <f>CONCATENATE("public Element ", A38, " { get; private set; } // ",B38," - Atomic Number ", C38)</f>
-        <v>public Element P { get; private set; } // Phosphorus - Atomic Number 15</v>
+        <f t="shared" si="1"/>
+        <v>public Element Ga { get; private set; } // Gallium - Atomic Number 31</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="F39">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="G39">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>32.066000000000003</v>
+        <v>72.61</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P39" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q39" t="str">
-        <f>CONCATENATE("public Element ", A39, " { get; private set; } // ",B39," - Atomic Number ", C39)</f>
-        <v>public Element S { get; private set; } // Sulfur - Atomic Number 16</v>
+        <f t="shared" si="1"/>
+        <v>public Element Ge { get; private set; } // Germanium - Atomic Number 32</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="F40">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="G40">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>35.4527</v>
+        <v>74.921589999999995</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>390</v>
+        <v>133</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q40" t="str">
-        <f>CONCATENATE("public Element ", A40, " { get; private set; } // ",B40," - Atomic Number ", C40)</f>
-        <v>public Element Cl { get; private set; } // Chlorine - Atomic Number 17</v>
+        <f t="shared" si="1"/>
+        <v>public Element As { get; private set; } // Arsenic - Atomic Number 33</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="F41">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="G41">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>39.948</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
+        <v>78.959999999999994</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q41" t="str">
-        <f>CONCATENATE("public Element ", A41, " { get; private set; } // ",B41," - Atomic Number ", C41)</f>
-        <v>public Element Ar { get; private set; } // Argon - Atomic Number 18</v>
+        <f t="shared" si="1"/>
+        <v>public Element Se { get; private set; } // Selenium - Atomic Number 34</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="F42">
-        <v>2.0299999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="G42">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>39.098300000000002</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
+        <v>79.903999999999996</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M42">
         <v>4</v>
@@ -4006,49 +4246,49 @@
         <v>3</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P42" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q42" t="str">
-        <f>CONCATENATE("public Element ", A42, " { get; private set; } // ",B42," - Atomic Number ", C42)</f>
-        <v>public Element K { get; private set; } // Potassium - Atomic Number 19</v>
+        <f t="shared" si="1"/>
+        <v>public Element Br { get; private set; } // Bromine - Atomic Number 35</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="F43">
-        <v>1.76</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>40.078000000000003</v>
+        <v>83.8</v>
       </c>
       <c r="J43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M43">
         <v>4</v>
@@ -4057,34 +4297,34 @@
         <v>3</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P43" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q43" t="str">
-        <f>CONCATENATE("public Element ", A43, " { get; private set; } // ",B43," - Atomic Number ", C43)</f>
-        <v>public Element Ca { get; private set; } // Calcium - Atomic Number 20</v>
+        <f t="shared" si="1"/>
+        <v>public Element Kr { get; private set; } // Krypton - Atomic Number 36</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C44">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="F44">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4093,253 +4333,253 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>44.955910000000003</v>
-      </c>
-      <c r="J44" s="1">
-        <v>3</v>
+        <v>85.467799999999997</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
         <v>4</v>
       </c>
-      <c r="N44">
-        <v>3</v>
-      </c>
       <c r="O44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q44" t="str">
-        <f>CONCATENATE("public Element ", A44, " { get; private set; } // ",B44," - Atomic Number ", C44)</f>
-        <v>public Element Sc { get; private set; } // Scandium - Atomic Number 21</v>
+        <f t="shared" si="1"/>
+        <v>public Element Rb { get; private set; } // Rubidium - Atomic Number 37</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="F45">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>87.62</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>47.88</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L45">
-        <v>4</v>
-      </c>
-      <c r="M45">
-        <v>4</v>
-      </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-      <c r="O45">
-        <v>3</v>
-      </c>
       <c r="P45" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q45" t="str">
-        <f>CONCATENATE("public Element ", A45, " { get; private set; } // ",B45," - Atomic Number ", C45)</f>
-        <v>public Element Ti { get; private set; } // Titanium - Atomic Number 22</v>
+        <f t="shared" si="1"/>
+        <v>public Element Sr { get; private set; } // Strontium - Atomic Number 38</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="F46">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>50.941499999999998</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>95</v>
+        <v>88.905850000000001</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3</v>
       </c>
       <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
         <v>5</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>4</v>
       </c>
-      <c r="N46">
-        <v>3</v>
-      </c>
       <c r="O46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P46" t="s">
         <v>406</v>
       </c>
       <c r="Q46" t="str">
-        <f>CONCATENATE("public Element ", A46, " { get; private set; } // ",B46," - Atomic Number ", C46)</f>
-        <v>public Element V { get; private set; } // Vanadium - Atomic Number 23</v>
+        <f t="shared" si="1"/>
+        <v>public Element Y { get; private set; } // Yttrium - Atomic Number 39</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="F47">
-        <v>1.39</v>
+        <v>1.75</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>51.996099999999998</v>
+        <v>91.224000000000004</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="L47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
         <v>4</v>
       </c>
-      <c r="N47">
-        <v>3</v>
-      </c>
       <c r="O47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P47" t="s">
         <v>406</v>
       </c>
       <c r="Q47" t="str">
-        <f>CONCATENATE("public Element ", A47, " { get; private set; } // ",B47," - Atomic Number ", C47)</f>
-        <v>public Element Cr { get; private set; } // Chromium - Atomic Number 24</v>
+        <f t="shared" si="1"/>
+        <v>public Element Zr { get; private set; } // Zirconium - Atomic Number 40</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="F48">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>54.938049999999997</v>
+        <v>92.906379999999999</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48">
         <v>4</v>
       </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
       <c r="O48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P48" t="s">
         <v>406</v>
       </c>
       <c r="Q48" t="str">
-        <f>CONCATENATE("public Element ", A48, " { get; private set; } // ",B48," - Atomic Number ", C48)</f>
-        <v>public Element Mn { get; private set; } // Manganese - Atomic Number 25</v>
+        <f t="shared" si="1"/>
+        <v>public Element Nb { get; private set; } // Niobium - Atomic Number 41</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="F49">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4348,574 +4588,574 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <v>55.847000000000001</v>
+        <v>95.94</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49">
         <v>4</v>
       </c>
-      <c r="N49">
-        <v>3</v>
-      </c>
       <c r="O49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P49" t="s">
         <v>406</v>
       </c>
       <c r="Q49" t="str">
-        <f>CONCATENATE("public Element ", A49, " { get; private set; } // ",B49," - Atomic Number ", C49)</f>
-        <v>public Element Fe { get; private set; } // Iron - Atomic Number 26</v>
+        <f t="shared" si="1"/>
+        <v>public Element Mo { get; private set; } // Molybdenum - Atomic Number 42</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="F50">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>58.933199999999999</v>
+        <v>-97.907200000000003</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="L50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="N50">
         <v>4</v>
       </c>
-      <c r="N50">
-        <v>3</v>
-      </c>
       <c r="O50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P50" t="s">
         <v>406</v>
       </c>
       <c r="Q50" t="str">
-        <f>CONCATENATE("public Element ", A50, " { get; private set; } // ",B50," - Atomic Number ", C50)</f>
-        <v>public Element Co { get; private set; } // Cobalt - Atomic Number 27</v>
+        <f t="shared" ref="Q50:Q81" si="2">CONCATENATE("public Element ", A50, " { get; private set; } // ",B50," - Atomic Number ", C50)</f>
+        <v>public Element Tc { get; private set; } // Technetium - Atomic Number 43</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="F51">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="G51">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>58.693399999999997</v>
+        <v>101.07</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="L51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51">
         <v>4</v>
       </c>
-      <c r="N51">
-        <v>3</v>
-      </c>
       <c r="O51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P51" t="s">
         <v>406</v>
       </c>
       <c r="Q51" t="str">
-        <f>CONCATENATE("public Element ", A51, " { get; private set; } // ",B51," - Atomic Number ", C51)</f>
-        <v>public Element Ni { get; private set; } // Nickel - Atomic Number 28</v>
+        <f t="shared" si="2"/>
+        <v>public Element Ru { get; private set; } // Ruthenium - Atomic Number 44</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="F52">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="G52">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>63.545999999999999</v>
+        <v>102.9055</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="L52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
         <v>4</v>
       </c>
-      <c r="N52">
-        <v>3</v>
-      </c>
       <c r="O52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P52" t="s">
         <v>406</v>
       </c>
       <c r="Q52" t="str">
-        <f>CONCATENATE("public Element ", A52, " { get; private set; } // ",B52," - Atomic Number ", C52)</f>
-        <v>public Element Cu { get; private set; } // Copper - Atomic Number 29</v>
+        <f t="shared" si="2"/>
+        <v>public Element Rh { get; private set; } // Rhodium - Atomic Number 45</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="F53">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="G53">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>65.39</v>
-      </c>
-      <c r="J53" s="1">
-        <v>2</v>
+        <v>106.42</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
         <v>4</v>
       </c>
-      <c r="N53">
-        <v>3</v>
-      </c>
       <c r="O53">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P53" t="s">
         <v>406</v>
       </c>
       <c r="Q53" t="str">
-        <f>CONCATENATE("public Element ", A53, " { get; private set; } // ",B53," - Atomic Number ", C53)</f>
-        <v>public Element Zn { get; private set; } // Zinc - Atomic Number 30</v>
+        <f t="shared" si="2"/>
+        <v>public Element Pd { get; private set; } // Palladium - Atomic Number 46</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="C54">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="F54">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="G54">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>69.722999999999999</v>
+        <v>107.8682</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="N54">
         <v>4</v>
       </c>
-      <c r="N54">
-        <v>3</v>
-      </c>
       <c r="O54">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P54" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q54" t="str">
-        <f>CONCATENATE("public Element ", A54, " { get; private set; } // ",B54," - Atomic Number ", C54)</f>
-        <v>public Element Ga { get; private set; } // Gallium - Atomic Number 31</v>
+        <f t="shared" si="2"/>
+        <v>public Element Ag { get; private set; } // Silver - Atomic Number 47</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="C55">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="F55">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>112.411</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>12</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="N55">
         <v>4</v>
       </c>
-      <c r="I55">
-        <v>72.61</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L55">
-        <v>14</v>
-      </c>
-      <c r="M55">
-        <v>4</v>
-      </c>
-      <c r="N55">
-        <v>3</v>
-      </c>
       <c r="O55">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P55" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q55" t="str">
-        <f>CONCATENATE("public Element ", A55, " { get; private set; } // ",B55," - Atomic Number ", C55)</f>
-        <v>public Element Ge { get; private set; } // Germanium - Atomic Number 32</v>
+        <f t="shared" si="2"/>
+        <v>public Element Cd { get; private set; } // Cadmium - Atomic Number 48</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="C56">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="F56">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="G56">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>74.921589999999995</v>
+        <v>114.818</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
         <v>4</v>
       </c>
-      <c r="N56">
-        <v>3</v>
-      </c>
       <c r="O56">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P56" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q56" t="str">
-        <f>CONCATENATE("public Element ", A56, " { get; private set; } // ",B56," - Atomic Number ", C56)</f>
-        <v>public Element As { get; private set; } // Arsenic - Atomic Number 33</v>
+        <f t="shared" si="2"/>
+        <v>public Element In { get; private set; } // Indium - Atomic Number 49</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="C57">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="F57">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="G57">
-        <v>1.9</v>
+        <v>2.17</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>78.959999999999994</v>
+        <v>118.71</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57">
         <v>4</v>
       </c>
-      <c r="N57">
-        <v>3</v>
-      </c>
       <c r="O57">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P57" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q57" t="str">
-        <f>CONCATENATE("public Element ", A57, " { get; private set; } // ",B57," - Atomic Number ", C57)</f>
-        <v>public Element Se { get; private set; } // Selenium - Atomic Number 34</v>
+        <f t="shared" si="2"/>
+        <v>public Element Sn { get; private set; } // Tin - Atomic Number 50</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="F58">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="G58">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>79.903999999999996</v>
+        <v>121.75700000000001</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M58">
+        <v>5</v>
+      </c>
+      <c r="N58">
         <v>4</v>
       </c>
-      <c r="N58">
-        <v>3</v>
-      </c>
       <c r="O58">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q58" t="str">
-        <f>CONCATENATE("public Element ", A58, " { get; private set; } // ",B58," - Atomic Number ", C58)</f>
-        <v>public Element Br { get; private set; } // Bromine - Atomic Number 35</v>
+        <f t="shared" si="2"/>
+        <v>public Element Sb { get; private set; } // Antimony - Atomic Number 51</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="C59">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="F59">
-        <v>1.1599999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="G59">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>83.8</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0</v>
+        <v>127.6</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M59">
+        <v>5</v>
+      </c>
+      <c r="N59">
         <v>4</v>
       </c>
-      <c r="N59">
-        <v>3</v>
-      </c>
       <c r="O59">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P59" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q59" t="str">
-        <f>CONCATENATE("public Element ", A59, " { get; private set; } // ",B59," - Atomic Number ", C59)</f>
-        <v>public Element Kr { get; private set; } // Krypton - Atomic Number 36</v>
+        <f t="shared" si="2"/>
+        <v>public Element Te { get; private set; } // Tellurium - Atomic Number 52</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="C60">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="F60">
-        <v>2.2000000000000002</v>
+        <v>1.39</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>85.467799999999997</v>
+        <v>126.90447</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M60">
         <v>5</v>
@@ -4924,49 +5164,49 @@
         <v>4</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P60" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q60" t="str">
-        <f>CONCATENATE("public Element ", A60, " { get; private set; } // ",B60," - Atomic Number ", C60)</f>
-        <v>public Element Rb { get; private set; } // Rubidium - Atomic Number 37</v>
+        <f t="shared" si="2"/>
+        <v>public Element I { get; private set; } // Iodine - Atomic Number 53</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="C61">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="F61">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>87.62</v>
+        <v>131.29</v>
       </c>
       <c r="J61" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M61">
         <v>5</v>
@@ -4975,34 +5215,34 @@
         <v>4</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P61" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q61" t="str">
-        <f>CONCATENATE("public Element ", A61, " { get; private set; } // ",B61," - Atomic Number ", C61)</f>
-        <v>public Element Sr { get; private set; } // Strontium - Atomic Number 38</v>
+        <f t="shared" si="2"/>
+        <v>public Element Xe { get; private set; } // Xenon - Atomic Number 54</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="C62">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="F62">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -5011,49 +5251,49 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>88.905850000000001</v>
+        <v>132.90543</v>
       </c>
       <c r="J62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M62">
+        <v>6</v>
+      </c>
+      <c r="N62">
         <v>5</v>
       </c>
-      <c r="N62">
-        <v>4</v>
-      </c>
       <c r="O62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q62" t="str">
-        <f>CONCATENATE("public Element ", A62, " { get; private set; } // ",B62," - Atomic Number ", C62)</f>
-        <v>public Element Y { get; private set; } // Yttrium - Atomic Number 39</v>
+        <f t="shared" si="2"/>
+        <v>public Element Cs { get; private set; } // Cesium - Atomic Number 55</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="C63">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="F63">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5062,763 +5302,763 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>91.224000000000004</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>40</v>
+        <v>137.327</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M63">
+        <v>6</v>
+      </c>
+      <c r="N63">
         <v>5</v>
       </c>
-      <c r="N63">
-        <v>4</v>
-      </c>
       <c r="O63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q63" t="str">
-        <f>CONCATENATE("public Element ", A63, " { get; private set; } // ",B63," - Atomic Number ", C63)</f>
-        <v>public Element Zr { get; private set; } // Zirconium - Atomic Number 40</v>
+        <f t="shared" si="2"/>
+        <v>public Element Ba { get; private set; } // Barium - Atomic Number 56</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="C64">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F64">
-        <v>1.64</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>92.906379999999999</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>160</v>
+        <v>138.90549999999999</v>
+      </c>
+      <c r="J64" s="1">
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P64" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q64" t="str">
-        <f>CONCATENATE("public Element ", A64, " { get; private set; } // ",B64," - Atomic Number ", C64)</f>
-        <v>public Element Nb { get; private set; } // Niobium - Atomic Number 41</v>
+        <f t="shared" si="2"/>
+        <v>public Element La { get; private set; } // Lanthanum - Atomic Number 57</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="C65">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="F65">
-        <v>1.54</v>
+        <v>2.04</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>95.94</v>
+        <v>140.11500000000001</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
         <v>6</v>
       </c>
-      <c r="M65">
-        <v>5</v>
-      </c>
       <c r="N65">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P65" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q65" t="str">
-        <f>CONCATENATE("public Element ", A65, " { get; private set; } // ",B65," - Atomic Number ", C65)</f>
-        <v>public Element Mo { get; private set; } // Molybdenum - Atomic Number 42</v>
+        <f t="shared" si="2"/>
+        <v>public Element Ce { get; private set; } // Cerium - Atomic Number 58</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="C66">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="F66">
-        <v>1.47</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>-97.907200000000003</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>167</v>
+        <v>140.90764999999999</v>
+      </c>
+      <c r="J66" s="1">
+        <v>3</v>
       </c>
       <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>6</v>
+      </c>
+      <c r="N66">
         <v>7</v>
       </c>
-      <c r="M66">
-        <v>5</v>
-      </c>
-      <c r="N66">
+      <c r="O66">
         <v>4</v>
       </c>
-      <c r="O66">
-        <v>6</v>
-      </c>
       <c r="P66" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q66" t="str">
-        <f>CONCATENATE("public Element ", A66, " { get; private set; } // ",B66," - Atomic Number ", C66)</f>
-        <v>public Element Tc { get; private set; } // Technetium - Atomic Number 43</v>
+        <f t="shared" si="2"/>
+        <v>public Element Pr { get; private set; } // Praseodymium - Atomic Number 59</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="C67">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="F67">
-        <v>1.46</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>101.07</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>171</v>
+        <v>144.24</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M67">
+        <v>6</v>
+      </c>
+      <c r="N67">
+        <v>7</v>
+      </c>
+      <c r="O67">
         <v>5</v>
       </c>
-      <c r="N67">
-        <v>4</v>
-      </c>
-      <c r="O67">
-        <v>7</v>
-      </c>
       <c r="P67" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q67" t="str">
-        <f>CONCATENATE("public Element ", A67, " { get; private set; } // ",B67," - Atomic Number ", C67)</f>
-        <v>public Element Ru { get; private set; } // Ruthenium - Atomic Number 44</v>
+        <f t="shared" si="2"/>
+        <v>public Element Nd { get; private set; } // Neodymium - Atomic Number 60</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="C68">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="F68">
-        <v>1.42</v>
+        <v>1.99</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>102.9055</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>175</v>
+        <v>-144.9127</v>
+      </c>
+      <c r="J68" s="1">
+        <v>3</v>
       </c>
       <c r="L68">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q68" t="str">
-        <f>CONCATENATE("public Element ", A68, " { get; private set; } // ",B68," - Atomic Number ", C68)</f>
-        <v>public Element Rh { get; private set; } // Rhodium - Atomic Number 45</v>
+        <f t="shared" si="2"/>
+        <v>public Element Pm { get; private set; } // Promethium - Atomic Number 61</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="C69">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="F69">
-        <v>1.39</v>
+        <v>1.98</v>
       </c>
       <c r="G69">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>106.42</v>
+        <v>150.36000000000001</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="L69">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O69">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P69" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q69" t="str">
-        <f>CONCATENATE("public Element ", A69, " { get; private set; } // ",B69," - Atomic Number ", C69)</f>
-        <v>public Element Pd { get; private set; } // Palladium - Atomic Number 46</v>
+        <f t="shared" si="2"/>
+        <v>public Element Sm { get; private set; } // Samarium - Atomic Number 62</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="C70">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="F70">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="G70">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>107.8682</v>
+        <v>151.965</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L70">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O70">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P70" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q70" t="str">
-        <f>CONCATENATE("public Element ", A70, " { get; private set; } // ",B70," - Atomic Number ", C70)</f>
-        <v>public Element Ag { get; private set; } // Silver - Atomic Number 47</v>
+        <f t="shared" si="2"/>
+        <v>public Element Eu { get; private set; } // Europium - Atomic Number 63</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="C71">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="F71">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
       <c r="G71">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>112.411</v>
+        <v>157.25</v>
       </c>
       <c r="J71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O71">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P71" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q71" t="str">
-        <f>CONCATENATE("public Element ", A71, " { get; private set; } // ",B71," - Atomic Number ", C71)</f>
-        <v>public Element Cd { get; private set; } // Cadmium - Atomic Number 48</v>
+        <f t="shared" si="2"/>
+        <v>public Element Gd { get; private set; } // Gadolinium - Atomic Number 64</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="C72">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="F72">
-        <v>1.42</v>
+        <v>1.94</v>
       </c>
       <c r="G72">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
-        <v>114.818</v>
+        <v>158.92534000000001</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="L72">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O72">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P72" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q72" t="str">
-        <f>CONCATENATE("public Element ", A72, " { get; private set; } // ",B72," - Atomic Number ", C72)</f>
-        <v>public Element In { get; private set; } // Indium - Atomic Number 49</v>
+        <f t="shared" si="2"/>
+        <v>public Element Tb { get; private set; } // Terbium - Atomic Number 65</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="C73">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="F73">
-        <v>1.39</v>
+        <v>1.92</v>
       </c>
       <c r="G73">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>118.71</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>129</v>
+        <v>162.5</v>
+      </c>
+      <c r="J73" s="1">
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O73">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P73" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q73" t="str">
-        <f>CONCATENATE("public Element ", A73, " { get; private set; } // ",B73," - Atomic Number ", C73)</f>
-        <v>public Element Sn { get; private set; } // Tin - Atomic Number 50</v>
+        <f t="shared" si="2"/>
+        <v>public Element Dy { get; private set; } // Dysprosium - Atomic Number 66</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="C74">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="F74">
-        <v>1.39</v>
+        <v>1.92</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>121.75700000000001</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>195</v>
+        <v>164.93031999999999</v>
+      </c>
+      <c r="J74" s="1">
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O74">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P74" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q74" t="str">
-        <f>CONCATENATE("public Element ", A74, " { get; private set; } // ",B74," - Atomic Number ", C74)</f>
-        <v>public Element Sb { get; private set; } // Antimony - Atomic Number 51</v>
+        <f t="shared" si="2"/>
+        <v>public Element Ho { get; private set; } // Holmium - Atomic Number 67</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="C75">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="F75">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="G75">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>127.6</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>72</v>
+        <v>167.26</v>
+      </c>
+      <c r="J75" s="1">
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P75" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q75" t="str">
-        <f>CONCATENATE("public Element ", A75, " { get; private set; } // ",B75," - Atomic Number ", C75)</f>
-        <v>public Element Te { get; private set; } // Tellurium - Atomic Number 52</v>
+        <f t="shared" si="2"/>
+        <v>public Element Er { get; private set; } // Erbium - Atomic Number 68</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="C76">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="F76">
-        <v>1.39</v>
+        <v>1.9</v>
       </c>
       <c r="G76">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>126.90447</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>76</v>
+        <v>168.93421000000001</v>
+      </c>
+      <c r="J76" s="1">
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P76" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q76" t="str">
-        <f>CONCATENATE("public Element ", A76, " { get; private set; } // ",B76," - Atomic Number ", C76)</f>
-        <v>public Element I { get; private set; } // Iodine - Atomic Number 53</v>
+        <f t="shared" si="2"/>
+        <v>public Element Tm { get; private set; } // Thulium - Atomic Number 69</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="C77">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="F77">
-        <v>1.4</v>
+        <v>1.87</v>
       </c>
       <c r="G77">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>131.29</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0</v>
+        <v>173.04</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O77">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P77" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Q77" t="str">
-        <f>CONCATENATE("public Element ", A77, " { get; private set; } // ",B77," - Atomic Number ", C77)</f>
-        <v>public Element Xe { get; private set; } // Xenon - Atomic Number 54</v>
+        <f t="shared" si="2"/>
+        <v>public Element Yb { get; private set; } // Ytterbium - Atomic Number 70</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="C78">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="F78">
-        <v>2.44</v>
+        <v>1.87</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -5827,13 +6067,13 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>132.90543</v>
+        <v>174.96700000000001</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M78">
         <v>6</v>
@@ -5842,34 +6082,34 @@
         <v>5</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P78" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q78" t="str">
-        <f>CONCATENATE("public Element ", A78, " { get; private set; } // ",B78," - Atomic Number ", C78)</f>
-        <v>public Element Cs { get; private set; } // Cesium - Atomic Number 55</v>
+        <f t="shared" si="2"/>
+        <v>public Element Lu { get; private set; } // Lutetium - Atomic Number 71</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="C79">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="F79">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -5878,13 +6118,13 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>137.327</v>
+        <v>178.49</v>
       </c>
       <c r="J79" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M79">
         <v>6</v>
@@ -5893,697 +6133,697 @@
         <v>5</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P79" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q79" t="str">
-        <f>CONCATENATE("public Element ", A79, " { get; private set; } // ",B79," - Atomic Number ", C79)</f>
-        <v>public Element Ba { get; private set; } // Barium - Atomic Number 56</v>
+        <f t="shared" si="2"/>
+        <v>public Element Hf { get; private set; } // Hafnium - Atomic Number 72</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="C80">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="F80">
-        <v>2.0699999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>138.90549999999999</v>
-      </c>
-      <c r="J80" s="1">
-        <v>3</v>
+        <v>180.9479</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M80">
         <v>6</v>
       </c>
       <c r="N80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P80" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q80" t="str">
-        <f>CONCATENATE("public Element ", A80, " { get; private set; } // ",B80," - Atomic Number ", C80)</f>
-        <v>public Element La { get; private set; } // Lanthanum - Atomic Number 57</v>
+        <f t="shared" si="2"/>
+        <v>public Element Ta { get; private set; } // Tantalum - Atomic Number 73</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="C81">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="F81">
-        <v>2.04</v>
+        <v>1.62</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>140.11500000000001</v>
+        <v>183.84</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M81">
         <v>6</v>
       </c>
       <c r="N81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P81" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q81" t="str">
-        <f>CONCATENATE("public Element ", A81, " { get; private set; } // ",B81," - Atomic Number ", C81)</f>
-        <v>public Element Ce { get; private set; } // Cerium - Atomic Number 58</v>
+        <f t="shared" si="2"/>
+        <v>public Element W { get; private set; } // Tungsten - Atomic Number 74</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="C82">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="F82">
-        <v>2.0299999999999998</v>
+        <v>1.51</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>140.90764999999999</v>
-      </c>
-      <c r="J82" s="1">
-        <v>3</v>
+        <v>186.20699999999999</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M82">
         <v>6</v>
       </c>
       <c r="N82">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P82" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q82" t="str">
-        <f>CONCATENATE("public Element ", A82, " { get; private set; } // ",B82," - Atomic Number ", C82)</f>
-        <v>public Element Pr { get; private set; } // Praseodymium - Atomic Number 59</v>
+        <f t="shared" ref="Q82:Q113" si="3">CONCATENATE("public Element ", A82, " { get; private set; } // ",B82," - Atomic Number ", C82)</f>
+        <v>public Element Re { get; private set; } // Rhenium - Atomic Number 75</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="C83">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
       <c r="F83">
-        <v>2.0099999999999998</v>
+        <v>1.44</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>144.24</v>
-      </c>
-      <c r="J83" s="1">
-        <v>3</v>
+        <v>190.23</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="L83">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M83">
         <v>6</v>
       </c>
       <c r="N83">
+        <v>5</v>
+      </c>
+      <c r="O83">
         <v>7</v>
       </c>
-      <c r="O83">
-        <v>5</v>
-      </c>
       <c r="P83" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q83" t="str">
-        <f>CONCATENATE("public Element ", A83, " { get; private set; } // ",B83," - Atomic Number ", C83)</f>
-        <v>public Element Nd { get; private set; } // Neodymium - Atomic Number 60</v>
+        <f t="shared" si="3"/>
+        <v>public Element Os { get; private set; } // Osmium - Atomic Number 76</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="C84">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="F84">
-        <v>1.99</v>
+        <v>1.41</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>-144.9127</v>
+        <v>192.22</v>
       </c>
       <c r="J84" s="1">
         <v>3</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M84">
         <v>6</v>
       </c>
       <c r="N84">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O84">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P84" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q84" t="str">
-        <f>CONCATENATE("public Element ", A84, " { get; private set; } // ",B84," - Atomic Number ", C84)</f>
-        <v>public Element Pm { get; private set; } // Promethium - Atomic Number 61</v>
+        <f t="shared" si="3"/>
+        <v>public Element Ir { get; private set; } // Iridium - Atomic Number 77</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="B85" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="C85">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="F85">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>150.36000000000001</v>
+        <v>195.08</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="L85">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M85">
         <v>6</v>
       </c>
       <c r="N85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O85">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P85" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q85" t="str">
-        <f>CONCATENATE("public Element ", A85, " { get; private set; } // ",B85," - Atomic Number ", C85)</f>
-        <v>public Element Sm { get; private set; } // Samarium - Atomic Number 62</v>
+        <f t="shared" si="3"/>
+        <v>public Element Pt { get; private set; } // Platinum - Atomic Number 78</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="C86">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="F86">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>151.965</v>
+        <v>196.96654000000001</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="L86">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M86">
         <v>6</v>
       </c>
       <c r="N86">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O86">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P86" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q86" t="str">
-        <f>CONCATENATE("public Element ", A86, " { get; private set; } // ",B86," - Atomic Number ", C86)</f>
-        <v>public Element Eu { get; private set; } // Europium - Atomic Number 63</v>
+        <f t="shared" si="3"/>
+        <v>public Element Au { get; private set; } // Gold - Atomic Number 79</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="C87">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="F87">
-        <v>1.96</v>
+        <v>1.32</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>157.25</v>
-      </c>
-      <c r="J87" s="1">
-        <v>3</v>
+        <v>200.59</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M87">
         <v>6</v>
       </c>
       <c r="N87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O87">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P87" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q87" t="str">
-        <f>CONCATENATE("public Element ", A87, " { get; private set; } // ",B87," - Atomic Number ", C87)</f>
-        <v>public Element Gd { get; private set; } // Gadolinium - Atomic Number 64</v>
+        <f t="shared" si="3"/>
+        <v>public Element Hg { get; private set; } // Mercury - Atomic Number 80</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="C88">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="F88">
-        <v>1.94</v>
+        <v>1.45</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>158.92534000000001</v>
+        <v>204.38329999999999</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M88">
         <v>6</v>
       </c>
       <c r="N88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O88">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P88" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q88" t="str">
-        <f>CONCATENATE("public Element ", A88, " { get; private set; } // ",B88," - Atomic Number ", C88)</f>
-        <v>public Element Tb { get; private set; } // Terbium - Atomic Number 65</v>
+        <f t="shared" si="3"/>
+        <v>public Element Tl { get; private set; } // Thallium - Atomic Number 81</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="C89">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="F89">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>162.5</v>
-      </c>
-      <c r="J89" s="1">
-        <v>3</v>
+        <v>207.2</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M89">
         <v>6</v>
       </c>
       <c r="N89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O89">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P89" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q89" t="str">
-        <f>CONCATENATE("public Element ", A89, " { get; private set; } // ",B89," - Atomic Number ", C89)</f>
-        <v>public Element Dy { get; private set; } // Dysprosium - Atomic Number 66</v>
+        <f t="shared" si="3"/>
+        <v>public Element Pb { get; private set; } // Lead - Atomic Number 82</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="B90" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="C90">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="F90">
-        <v>1.92</v>
+        <v>1.48</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>164.93031999999999</v>
-      </c>
-      <c r="J90" s="1">
-        <v>3</v>
+        <v>208.98036999999999</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="L90">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M90">
         <v>6</v>
       </c>
       <c r="N90">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O90">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P90" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q90" t="str">
-        <f>CONCATENATE("public Element ", A90, " { get; private set; } // ",B90," - Atomic Number ", C90)</f>
-        <v>public Element Ho { get; private set; } // Holmium - Atomic Number 67</v>
+        <f t="shared" si="3"/>
+        <v>public Element Bi { get; private set; } // Bismuth - Atomic Number 83</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="C91">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="F91">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>167.26</v>
-      </c>
-      <c r="J91" s="1">
-        <v>3</v>
+        <v>-208.98240000000001</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="L91">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M91">
         <v>6</v>
       </c>
       <c r="N91">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O91">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P91" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q91" t="str">
-        <f>CONCATENATE("public Element ", A91, " { get; private set; } // ",B91," - Atomic Number ", C91)</f>
-        <v>public Element Er { get; private set; } // Erbium - Atomic Number 68</v>
+        <f t="shared" si="3"/>
+        <v>public Element Po { get; private set; } // Polonium - Atomic Number 84</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C92">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="F92">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>168.93421000000001</v>
-      </c>
-      <c r="J92" s="1">
-        <v>3</v>
+        <v>-209.9871</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L92">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M92">
         <v>6</v>
       </c>
       <c r="N92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O92">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P92" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q92" t="str">
-        <f>CONCATENATE("public Element ", A92, " { get; private set; } // ",B92," - Atomic Number ", C92)</f>
-        <v>public Element Tm { get; private set; } // Thulium - Atomic Number 69</v>
+        <f t="shared" si="3"/>
+        <v>public Element At { get; private set; } // Astatine - Atomic Number 85</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="B93" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="C93">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="F93">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -6592,49 +6832,49 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>173.04</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>111</v>
+        <v>-222.01759999999999</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M93">
         <v>6</v>
       </c>
       <c r="N93">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O93">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P93" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q93" t="str">
-        <f>CONCATENATE("public Element ", A93, " { get; private set; } // ",B93," - Atomic Number ", C93)</f>
-        <v>public Element Yb { get; private set; } // Ytterbium - Atomic Number 70</v>
+        <f t="shared" si="3"/>
+        <v>public Element Rn { get; private set; } // Radon - Atomic Number 86</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="B94" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="C94">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="F94">
-        <v>1.87</v>
+        <v>2.6</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -6643,49 +6883,49 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>174.96700000000001</v>
+        <v>-223.0197</v>
       </c>
       <c r="J94" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94">
+        <v>7</v>
+      </c>
+      <c r="N94">
         <v>6</v>
       </c>
-      <c r="N94">
-        <v>5</v>
-      </c>
       <c r="O94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P94" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="Q94" t="str">
-        <f>CONCATENATE("public Element ", A94, " { get; private set; } // ",B94," - Atomic Number ", C94)</f>
-        <v>public Element Lu { get; private set; } // Lutetium - Atomic Number 71</v>
+        <f t="shared" si="3"/>
+        <v>public Element Fr { get; private set; } // Francium - Atomic Number 87</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="C95">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="F95">
-        <v>1.75</v>
+        <v>2.21</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -6694,712 +6934,700 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>178.49</v>
+        <v>-226.02539999999999</v>
       </c>
       <c r="J95" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M95">
+        <v>7</v>
+      </c>
+      <c r="N95">
         <v>6</v>
       </c>
-      <c r="N95">
-        <v>5</v>
-      </c>
       <c r="O95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q95" t="str">
-        <f>CONCATENATE("public Element ", A95, " { get; private set; } // ",B95," - Atomic Number ", C95)</f>
-        <v>public Element Hf { get; private set; } // Hafnium - Atomic Number 72</v>
+        <f t="shared" si="3"/>
+        <v>public Element Ra { get; private set; } // Radium - Atomic Number 88</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="C96">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="F96">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>180.9479</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>44</v>
+        <v>-227.02780000000001</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N96">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P96" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q96" t="str">
-        <f>CONCATENATE("public Element ", A96, " { get; private set; } // ",B96," - Atomic Number ", C96)</f>
-        <v>public Element Ta { get; private set; } // Tantalum - Atomic Number 73</v>
+        <f t="shared" si="3"/>
+        <v>public Element Ac { get; private set; } // Actinium - Atomic Number 89</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="B97" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="C97">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="F97">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>183.84</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>175</v>
+        <v>232.03809999999999</v>
+      </c>
+      <c r="J97" s="1">
+        <v>4</v>
       </c>
       <c r="L97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N97">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P97" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q97" t="str">
-        <f>CONCATENATE("public Element ", A97, " { get; private set; } // ",B97," - Atomic Number ", C97)</f>
-        <v>public Element W { get; private set; } // Tungsten - Atomic Number 74</v>
+        <f t="shared" si="3"/>
+        <v>public Element Th { get; private set; } // Thorium - Atomic Number 90</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="C98">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="F98">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>186.20699999999999</v>
+        <v>231.03587999999999</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
         <v>7</v>
       </c>
-      <c r="M98">
-        <v>6</v>
-      </c>
       <c r="N98">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P98" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q98" t="str">
-        <f>CONCATENATE("public Element ", A98, " { get; private set; } // ",B98," - Atomic Number ", C98)</f>
-        <v>public Element Re { get; private set; } // Rhenium - Atomic Number 75</v>
+        <f t="shared" si="3"/>
+        <v>public Element Pa { get; private set; } // Protactinium - Atomic Number 91</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="B99" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="C99">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="F99">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>190.23</v>
+        <v>238.02889999999999</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>7</v>
+      </c>
+      <c r="N99">
         <v>8</v>
       </c>
-      <c r="M99">
-        <v>6</v>
-      </c>
-      <c r="N99">
+      <c r="O99">
         <v>5</v>
       </c>
-      <c r="O99">
-        <v>7</v>
-      </c>
       <c r="P99" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q99" t="str">
-        <f>CONCATENATE("public Element ", A99, " { get; private set; } // ",B99," - Atomic Number ", C99)</f>
-        <v>public Element Os { get; private set; } // Osmium - Atomic Number 76</v>
+        <f t="shared" si="3"/>
+        <v>public Element U { get; private set; } // Uranium - Atomic Number 92</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="C100">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="F100">
-        <v>1.41</v>
+        <v>1.9</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>192.22</v>
-      </c>
-      <c r="J100" s="1">
-        <v>3</v>
+        <v>-237.04820000000001</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="L100">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M100">
+        <v>7</v>
+      </c>
+      <c r="N100">
+        <v>8</v>
+      </c>
+      <c r="O100">
         <v>6</v>
       </c>
-      <c r="N100">
-        <v>5</v>
-      </c>
-      <c r="O100">
-        <v>8</v>
-      </c>
       <c r="P100" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q100" t="str">
-        <f>CONCATENATE("public Element ", A100, " { get; private set; } // ",B100," - Atomic Number ", C100)</f>
-        <v>public Element Ir { get; private set; } // Iridium - Atomic Number 77</v>
+        <f t="shared" si="3"/>
+        <v>public Element Np { get; private set; } // Neptunium - Atomic Number 93</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="C101">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="F101">
-        <v>1.36</v>
+        <v>1.87</v>
       </c>
       <c r="G101">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>195.08</v>
+        <v>-244.0642</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="L101">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N101">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O101">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P101" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q101" t="str">
-        <f>CONCATENATE("public Element ", A101, " { get; private set; } // ",B101," - Atomic Number ", C101)</f>
-        <v>public Element Pt { get; private set; } // Platinum - Atomic Number 78</v>
+        <f t="shared" si="3"/>
+        <v>public Element Pu { get; private set; } // Plutonium - Atomic Number 94</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="B102" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="C102">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="F102">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="G102">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>196.96654000000001</v>
+        <v>-243.06139999999999</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="L102">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O102">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P102" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q102" t="str">
-        <f>CONCATENATE("public Element ", A102, " { get; private set; } // ",B102," - Atomic Number ", C102)</f>
-        <v>public Element Au { get; private set; } // Gold - Atomic Number 79</v>
+        <f t="shared" si="3"/>
+        <v>public Element Am { get; private set; } // Americium - Atomic Number 95</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="C103">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="F103">
-        <v>1.32</v>
+        <v>1.69</v>
       </c>
       <c r="G103">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>200.59</v>
+        <v>-247.0703</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="L103">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N103">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P103" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q103" t="str">
-        <f>CONCATENATE("public Element ", A103, " { get; private set; } // ",B103," - Atomic Number ", C103)</f>
-        <v>public Element Hg { get; private set; } // Mercury - Atomic Number 80</v>
+        <f t="shared" si="3"/>
+        <v>public Element Cm { get; private set; } // Curium - Atomic Number 96</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="B104" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="C104">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="F104">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>204.38329999999999</v>
+        <v>-247.0703</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="L104">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O104">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P104" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q104" t="str">
-        <f>CONCATENATE("public Element ", A104, " { get; private set; } // ",B104," - Atomic Number ", C104)</f>
-        <v>public Element Tl { get; private set; } // Thallium - Atomic Number 81</v>
+        <f t="shared" si="3"/>
+        <v>public Element Bk { get; private set; } // Berkelium - Atomic Number 97</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="C105">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="F105">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>207.2</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>129</v>
+        <v>-251.0796</v>
       </c>
       <c r="L105">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N105">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O105">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P105" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q105" t="str">
-        <f>CONCATENATE("public Element ", A105, " { get; private set; } // ",B105," - Atomic Number ", C105)</f>
-        <v>public Element Pb { get; private set; } // Lead - Atomic Number 82</v>
+        <f t="shared" si="3"/>
+        <v>public Element Cf { get; private set; } // Californium - Atomic Number 98</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="B106" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="C106">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="F106">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>208.98036999999999</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>44</v>
+        <v>-252.083</v>
       </c>
       <c r="L106">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N106">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O106">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P106" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q106" t="str">
-        <f>CONCATENATE("public Element ", A106, " { get; private set; } // ",B106," - Atomic Number ", C106)</f>
-        <v>public Element Bi { get; private set; } // Bismuth - Atomic Number 83</v>
+        <f t="shared" si="3"/>
+        <v>public Element Es { get; private set; } // Einsteinium - Atomic Number 99</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="C107">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="F107">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>-208.98240000000001</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>299</v>
+        <v>-257.0951</v>
       </c>
       <c r="L107">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N107">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O107">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P107" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q107" t="str">
-        <f>CONCATENATE("public Element ", A107, " { get; private set; } // ",B107," - Atomic Number ", C107)</f>
-        <v>public Element Po { get; private set; } // Polonium - Atomic Number 84</v>
+        <f t="shared" si="3"/>
+        <v>public Element Fm { get; private set; } // Fermium - Atomic Number 100</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="C108">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="F108">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>-209.9871</v>
+        <v>-258.09840000000003</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="L108">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N108">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O108">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P108" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q108" t="str">
-        <f>CONCATENATE("public Element ", A108, " { get; private set; } // ",B108," - Atomic Number ", C108)</f>
-        <v>public Element At { get; private set; } // Astatine - Atomic Number 85</v>
+        <f t="shared" si="3"/>
+        <v>public Element Md { get; private set; } // Mendelevium - Atomic Number 101</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="C109">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="F109">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -7408,49 +7636,46 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>-222.01759999999999</v>
-      </c>
-      <c r="J109" s="1">
-        <v>0</v>
+        <v>-259.10109999999997</v>
       </c>
       <c r="L109">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N109">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O109">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P109" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="Q109" t="str">
-        <f>CONCATENATE("public Element ", A109, " { get; private set; } // ",B109," - Atomic Number ", C109)</f>
-        <v>public Element Rn { get; private set; } // Radon - Atomic Number 86</v>
+        <f t="shared" si="3"/>
+        <v>public Element No { get; private set; } // Nobelium - Atomic Number 102</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="B110" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="C110">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="F110">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -7459,13 +7684,13 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>-223.0197</v>
+        <v>-262.10980000000001</v>
       </c>
       <c r="J110" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M110">
         <v>7</v>
@@ -7474,34 +7699,34 @@
         <v>6</v>
       </c>
       <c r="O110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P110" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q110" t="str">
-        <f>CONCATENATE("public Element ", A110, " { get; private set; } // ",B110," - Atomic Number ", C110)</f>
-        <v>public Element Fr { get; private set; } // Francium - Atomic Number 87</v>
+        <f t="shared" si="3"/>
+        <v>public Element Lr { get; private set; } // Lawrencium - Atomic Number 103</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="B111" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="C111">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="F111">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -7510,13 +7735,10 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>-226.02539999999999</v>
-      </c>
-      <c r="J111" s="1">
-        <v>2</v>
+        <v>-261.10890000000001</v>
       </c>
       <c r="L111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M111">
         <v>7</v>
@@ -7525,34 +7747,34 @@
         <v>6</v>
       </c>
       <c r="O111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P111" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q111" t="str">
-        <f>CONCATENATE("public Element ", A111, " { get; private set; } // ",B111," - Atomic Number ", C111)</f>
-        <v>public Element Ra { get; private set; } // Radium - Atomic Number 88</v>
+        <f t="shared" si="3"/>
+        <v>public Element Rf { get; private set; } // Rutherfordium - Atomic Number 104</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="B112" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="C112">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="F112">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -7561,46 +7783,46 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>-227.02780000000001</v>
+        <v>-262.11439999999999</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M112">
         <v>7</v>
       </c>
       <c r="N112">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P112" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q112" t="str">
-        <f>CONCATENATE("public Element ", A112, " { get; private set; } // ",B112," - Atomic Number ", C112)</f>
-        <v>public Element Ac { get; private set; } // Actinium - Atomic Number 89</v>
+        <f t="shared" si="3"/>
+        <v>public Element Db { get; private set; } // Dubnium - Atomic Number 105</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="B113" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="C113">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="F113">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -7609,49 +7831,46 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>232.03809999999999</v>
-      </c>
-      <c r="J113" s="1">
-        <v>4</v>
+        <v>-263.11860000000001</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M113">
         <v>7</v>
       </c>
       <c r="N113">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P113" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q113" t="str">
-        <f>CONCATENATE("public Element ", A113, " { get; private set; } // ",B113," - Atomic Number ", C113)</f>
-        <v>public Element Th { get; private set; } // Thorium - Atomic Number 90</v>
+        <f t="shared" si="3"/>
+        <v>public Element Sg { get; private set; } // Seaborgium - Atomic Number 106</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="B114" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="C114">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -7660,100 +7879,88 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <v>231.03587999999999</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>321</v>
+        <v>-262.12310000000002</v>
       </c>
       <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
         <v>7</v>
       </c>
       <c r="N114">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P114" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q114" t="str">
-        <f>CONCATENATE("public Element ", A114, " { get; private set; } // ",B114," - Atomic Number ", C114)</f>
-        <v>public Element Pa { get; private set; } // Protactinium - Atomic Number 91</v>
+        <f t="shared" ref="Q114:Q131" si="4">CONCATENATE("public Element ", A114, " { get; private set; } // ",B114," - Atomic Number ", C114)</f>
+        <v>public Element Bh { get; private set; } // Bohrium - Atomic Number 107</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="B115" t="s">
-        <v>323</v>
+        <v>372</v>
       </c>
       <c r="C115">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="F115">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>238.02889999999999</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>175</v>
+        <v>-265.13060000000002</v>
       </c>
       <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
+        <v>8</v>
+      </c>
+      <c r="N115">
+        <v>6</v>
+      </c>
+      <c r="O115">
         <v>7</v>
       </c>
-      <c r="N115">
-        <v>8</v>
-      </c>
-      <c r="O115">
-        <v>5</v>
-      </c>
       <c r="P115" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q115" t="str">
-        <f>CONCATENATE("public Element ", A115, " { get; private set; } // ",B115," - Atomic Number ", C115)</f>
-        <v>public Element U { get; private set; } // Uranium - Atomic Number 92</v>
+        <f t="shared" si="4"/>
+        <v>public Element Hs { get; private set; } // Hassium - Atomic Number 108</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="B116" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="C116">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="F116">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -7762,49 +7969,43 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>-237.04820000000001</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>328</v>
+        <v>-266.13780000000003</v>
       </c>
       <c r="L116">
-        <v>3</v>
-      </c>
-      <c r="M116">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N116">
+        <v>6</v>
+      </c>
+      <c r="O116">
         <v>8</v>
       </c>
-      <c r="O116">
-        <v>6</v>
-      </c>
       <c r="P116" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q116" t="str">
-        <f>CONCATENATE("public Element ", A116, " { get; private set; } // ",B116," - Atomic Number ", C116)</f>
-        <v>public Element Np { get; private set; } // Neptunium - Atomic Number 93</v>
+        <f t="shared" si="4"/>
+        <v>public Element Mt { get; private set; } // Meitnerium - Atomic Number 109</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B117" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="C117">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="F117">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -7813,49 +8014,43 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>-244.0642</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>328</v>
+        <v>-268</v>
       </c>
       <c r="L117">
-        <v>3</v>
-      </c>
-      <c r="M117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N117">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O117">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P117" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q117" t="str">
-        <f>CONCATENATE("public Element ", A117, " { get; private set; } // ",B117," - Atomic Number ", C117)</f>
-        <v>public Element Pu { get; private set; } // Plutonium - Atomic Number 94</v>
+        <f t="shared" si="4"/>
+        <v>public Element Ds { get; private set; } // Darmstadtium - Atomic Number 110</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="B118" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="C118">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="F118">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -7864,49 +8059,40 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>-243.06139999999999</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>7</v>
+        <v>-269</v>
       </c>
       <c r="N118">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O118">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P118" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q118" t="str">
-        <f>CONCATENATE("public Element ", A118, " { get; private set; } // ",B118," - Atomic Number ", C118)</f>
-        <v>public Element Am { get; private set; } // Americium - Atomic Number 95</v>
+        <f t="shared" si="4"/>
+        <v>public Element Rg { get; private set; } // Roentgenium - Atomic Number 111</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="B119" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="C119">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="F119">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -7915,46 +8101,37 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>-247.0703</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L119">
-        <v>3</v>
-      </c>
-      <c r="M119">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O119">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P119" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q119" t="str">
-        <f>CONCATENATE("public Element ", A119, " { get; private set; } // ",B119," - Atomic Number ", C119)</f>
-        <v>public Element Cm { get; private set; } // Curium - Atomic Number 96</v>
+        <f t="shared" si="4"/>
+        <v>public Element Cn { get; private set; } // Copernicium - Atomic Number 112</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
       <c r="B120" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
       <c r="C120">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -7966,94 +8143,81 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>-247.0703</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L120">
-        <v>3</v>
-      </c>
-      <c r="M120">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O120">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P120" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q120" t="str">
-        <f>CONCATENATE("public Element ", A120, " { get; private set; } // ",B120," - Atomic Number ", C120)</f>
-        <v>public Element Bk { get; private set; } // Berkelium - Atomic Number 97</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>341</v>
-      </c>
-      <c r="B121" t="s">
-        <v>342</v>
-      </c>
-      <c r="C121">
-        <v>98</v>
-      </c>
-      <c r="D121" t="b">
-        <v>0</v>
-      </c>
-      <c r="E121" t="s">
-        <v>343</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>-251.0796</v>
-      </c>
-      <c r="L121">
-        <v>3</v>
-      </c>
-      <c r="M121">
-        <v>7</v>
-      </c>
-      <c r="N121">
-        <v>8</v>
-      </c>
-      <c r="O121">
-        <v>11</v>
-      </c>
-      <c r="P121" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q121" t="str">
-        <f>CONCATENATE("public Element ", A121, " { get; private set; } // ",B121," - Atomic Number ", C121)</f>
-        <v>public Element Cf { get; private set; } // Californium - Atomic Number 98</v>
+        <f t="shared" si="4"/>
+        <v>public Element Nh { get; private set; } // Nihonium - Atomic Number 113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C121" s="3">
+        <v>113</v>
+      </c>
+      <c r="D121" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="N121" s="3">
+        <v>6</v>
+      </c>
+      <c r="O121" s="3">
+        <v>12</v>
+      </c>
+      <c r="P121" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q121" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>public Element Uut { get; private set; } // Ununtrium - Atomic Number 113</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="B122" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="C122">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -8065,91 +8229,81 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <v>-252.083</v>
-      </c>
-      <c r="L122">
-        <v>3</v>
-      </c>
-      <c r="M122">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O122">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P122" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q122" t="str">
-        <f>CONCATENATE("public Element ", A122, " { get; private set; } // ",B122," - Atomic Number ", C122)</f>
-        <v>public Element Es { get; private set; } // Einsteinium - Atomic Number 99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>347</v>
-      </c>
-      <c r="B123" t="s">
-        <v>348</v>
-      </c>
-      <c r="C123">
-        <v>100</v>
-      </c>
-      <c r="D123" t="b">
-        <v>0</v>
-      </c>
-      <c r="E123" t="s">
-        <v>349</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>-257.0951</v>
-      </c>
-      <c r="L123">
-        <v>3</v>
-      </c>
-      <c r="M123">
-        <v>7</v>
-      </c>
-      <c r="N123">
-        <v>8</v>
-      </c>
-      <c r="O123">
+        <f t="shared" si="4"/>
+        <v>public Element Fl { get; private set; } // Flerovium - Atomic Number 114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C123" s="3">
+        <v>114</v>
+      </c>
+      <c r="D123" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="3">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="N123" s="3">
+        <v>6</v>
+      </c>
+      <c r="O123" s="3">
         <v>13</v>
       </c>
-      <c r="P123" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q123" t="str">
-        <f>CONCATENATE("public Element ", A123, " { get; private set; } // ",B123," - Atomic Number ", C123)</f>
-        <v>public Element Fm { get; private set; } // Fermium - Atomic Number 100</v>
+      <c r="P123" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q123" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>public Element Uuq { get; private set; } // Ununquadium - Atomic Number 114</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="B124" t="s">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="C124">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -8161,94 +8315,81 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <v>-258.09840000000003</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L124">
-        <v>3</v>
-      </c>
-      <c r="M124">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N124">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O124">
         <v>14</v>
       </c>
       <c r="P124" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q124" t="str">
-        <f>CONCATENATE("public Element ", A124, " { get; private set; } // ",B124," - Atomic Number ", C124)</f>
-        <v>public Element Md { get; private set; } // Mendelevium - Atomic Number 101</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>353</v>
-      </c>
-      <c r="B125" t="s">
-        <v>354</v>
-      </c>
-      <c r="C125">
-        <v>102</v>
-      </c>
-      <c r="D125" t="b">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>355</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>-259.10109999999997</v>
-      </c>
-      <c r="L125">
-        <v>3</v>
-      </c>
-      <c r="M125">
-        <v>7</v>
-      </c>
-      <c r="N125">
-        <v>8</v>
-      </c>
-      <c r="O125">
-        <v>15</v>
-      </c>
-      <c r="P125" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q125" t="str">
-        <f>CONCATENATE("public Element ", A125, " { get; private set; } // ",B125," - Atomic Number ", C125)</f>
-        <v>public Element No { get; private set; } // Nobelium - Atomic Number 102</v>
+        <f t="shared" si="4"/>
+        <v>public Element Mc { get; private set; } // Moscovium - Atomic Number 115</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C125" s="3">
+        <v>115</v>
+      </c>
+      <c r="D125" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="N125" s="3">
+        <v>6</v>
+      </c>
+      <c r="O125" s="3">
+        <v>14</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q125" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>public Element Uup { get; private set; } // Ununpentium - Atomic Number 115</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="B126" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="C126">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -8260,94 +8401,81 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <v>-262.10980000000001</v>
-      </c>
-      <c r="J126" s="1">
-        <v>3</v>
-      </c>
-      <c r="L126">
-        <v>3</v>
-      </c>
-      <c r="M126">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N126">
         <v>6</v>
       </c>
       <c r="O126">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P126" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q126" t="str">
-        <f>CONCATENATE("public Element ", A126, " { get; private set; } // ",B126," - Atomic Number ", C126)</f>
-        <v>public Element Lr { get; private set; } // Lawrencium - Atomic Number 103</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>359</v>
-      </c>
-      <c r="B127" t="s">
-        <v>360</v>
-      </c>
-      <c r="C127">
-        <v>104</v>
-      </c>
-      <c r="D127" t="b">
-        <v>0</v>
-      </c>
-      <c r="E127" t="s">
-        <v>361</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>-261.10890000000001</v>
-      </c>
-      <c r="L127">
-        <v>4</v>
-      </c>
-      <c r="M127">
-        <v>7</v>
-      </c>
-      <c r="N127">
+        <f t="shared" si="4"/>
+        <v>public Element Lv { get; private set; } // Livermorium - Atomic Number 116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C127" s="3">
+        <v>116</v>
+      </c>
+      <c r="D127" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127" s="3">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="N127" s="3">
         <v>6</v>
       </c>
-      <c r="O127">
-        <v>3</v>
-      </c>
-      <c r="P127" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q127" t="str">
-        <f>CONCATENATE("public Element ", A127, " { get; private set; } // ",B127," - Atomic Number ", C127)</f>
-        <v>public Element Rf { get; private set; } // Rutherfordium - Atomic Number 104</v>
+      <c r="O127" s="3">
+        <v>15</v>
+      </c>
+      <c r="P127" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q127" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>public Element Uuh { get; private set; } // Ununhexium - Atomic Number 116</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="B128" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="C128">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -8359,91 +8487,81 @@
         <v>0</v>
       </c>
       <c r="I128">
-        <v>-262.11439999999999</v>
-      </c>
-      <c r="L128">
-        <v>5</v>
-      </c>
-      <c r="M128">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>6</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P128" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q128" t="str">
-        <f>CONCATENATE("public Element ", A128, " { get; private set; } // ",B128," - Atomic Number ", C128)</f>
-        <v>public Element Db { get; private set; } // Dubnium - Atomic Number 105</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>365</v>
-      </c>
-      <c r="B129" t="s">
-        <v>366</v>
-      </c>
-      <c r="C129">
-        <v>106</v>
-      </c>
-      <c r="D129" t="b">
-        <v>0</v>
-      </c>
-      <c r="E129" t="s">
-        <v>367</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>-263.11860000000001</v>
-      </c>
-      <c r="L129">
+        <f t="shared" si="4"/>
+        <v>public Element Ts { get; private set; } // Tennessine - Atomic Number 117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C129" s="3">
+        <v>117</v>
+      </c>
+      <c r="D129" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="N129" s="3">
         <v>6</v>
       </c>
-      <c r="M129">
-        <v>7</v>
-      </c>
-      <c r="N129">
-        <v>6</v>
-      </c>
-      <c r="O129">
-        <v>5</v>
-      </c>
-      <c r="P129" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q129" t="str">
-        <f>CONCATENATE("public Element ", A129, " { get; private set; } // ",B129," - Atomic Number ", C129)</f>
-        <v>public Element Sg { get; private set; } // Seaborgium - Atomic Number 106</v>
+      <c r="O129" s="3">
+        <v>16</v>
+      </c>
+      <c r="P129" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q129" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>public Element Uus { get; private set; } // Ununseptium - Atomic Number 117</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="B130" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="C130">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -8455,765 +8573,71 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <v>-262.12310000000002</v>
-      </c>
-      <c r="L130">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N130">
         <v>6</v>
       </c>
       <c r="O130">
+        <v>17</v>
+      </c>
+      <c r="P130" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q130" t="str">
+        <f t="shared" si="4"/>
+        <v>public Element Og { get; private set; } // Oganesson - Atomic Number 118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C131" s="3">
+        <v>118</v>
+      </c>
+      <c r="D131" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="N131" s="3">
         <v>6</v>
       </c>
-      <c r="P130" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q130" t="str">
-        <f>CONCATENATE("public Element ", A130, " { get; private set; } // ",B130," - Atomic Number ", C130)</f>
-        <v>public Element Bh { get; private set; } // Bohrium - Atomic Number 107</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>371</v>
-      </c>
-      <c r="B131" t="s">
-        <v>372</v>
-      </c>
-      <c r="C131">
-        <v>108</v>
-      </c>
-      <c r="D131" t="b">
-        <v>0</v>
-      </c>
-      <c r="E131" t="s">
-        <v>373</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>-265.13060000000002</v>
-      </c>
-      <c r="L131">
-        <v>8</v>
-      </c>
-      <c r="N131">
-        <v>6</v>
-      </c>
-      <c r="O131">
-        <v>7</v>
-      </c>
-      <c r="P131" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q131" t="str">
-        <f>CONCATENATE("public Element ", A131, " { get; private set; } // ",B131," - Atomic Number ", C131)</f>
-        <v>public Element Hs { get; private set; } // Hassium - Atomic Number 108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>374</v>
-      </c>
-      <c r="B132" t="s">
-        <v>375</v>
-      </c>
-      <c r="C132">
-        <v>109</v>
-      </c>
-      <c r="D132" t="b">
-        <v>0</v>
-      </c>
-      <c r="E132" t="s">
-        <v>376</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>-266.13780000000003</v>
-      </c>
-      <c r="L132">
-        <v>9</v>
-      </c>
-      <c r="N132">
-        <v>6</v>
-      </c>
-      <c r="O132">
-        <v>8</v>
-      </c>
-      <c r="P132" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q132" t="str">
-        <f>CONCATENATE("public Element ", A132, " { get; private set; } // ",B132," - Atomic Number ", C132)</f>
-        <v>public Element Mt { get; private set; } // Meitnerium - Atomic Number 109</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>377</v>
-      </c>
-      <c r="B133" t="s">
-        <v>378</v>
-      </c>
-      <c r="C133">
-        <v>110</v>
-      </c>
-      <c r="D133" t="b">
-        <v>0</v>
-      </c>
-      <c r="E133" t="s">
-        <v>379</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>-268</v>
-      </c>
-      <c r="L133">
-        <v>10</v>
-      </c>
-      <c r="N133">
-        <v>6</v>
-      </c>
-      <c r="O133">
-        <v>9</v>
-      </c>
-      <c r="P133" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q133" t="str">
-        <f>CONCATENATE("public Element ", A133, " { get; private set; } // ",B133," - Atomic Number ", C133)</f>
-        <v>public Element Ds { get; private set; } // Darmstadtium - Atomic Number 110</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>380</v>
-      </c>
-      <c r="B134" t="s">
-        <v>381</v>
-      </c>
-      <c r="C134">
-        <v>111</v>
-      </c>
-      <c r="D134" t="b">
-        <v>0</v>
-      </c>
-      <c r="E134" t="s">
-        <v>379</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>-269</v>
-      </c>
-      <c r="N134">
-        <v>6</v>
-      </c>
-      <c r="O134">
-        <v>10</v>
-      </c>
-      <c r="P134" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q134" t="str">
-        <f>CONCATENATE("public Element ", A134, " { get; private set; } // ",B134," - Atomic Number ", C134)</f>
-        <v>public Element Rg { get; private set; } // Roentgenium - Atomic Number 111</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>382</v>
-      </c>
-      <c r="B135" t="s">
-        <v>383</v>
-      </c>
-      <c r="C135">
-        <v>112</v>
-      </c>
-      <c r="D135" t="b">
-        <v>0</v>
-      </c>
-      <c r="E135" t="s">
-        <v>379</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <v>6</v>
-      </c>
-      <c r="O135">
-        <v>11</v>
-      </c>
-      <c r="P135" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q135" t="str">
-        <f>CONCATENATE("public Element ", A135, " { get; private set; } // ",B135," - Atomic Number ", C135)</f>
-        <v>public Element Cn { get; private set; } // Copernicium - Atomic Number 112</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>426</v>
-      </c>
-      <c r="B136" t="s">
-        <v>430</v>
-      </c>
-      <c r="C136">
-        <v>113</v>
-      </c>
-      <c r="D136" t="b">
-        <v>0</v>
-      </c>
-      <c r="E136" t="s">
-        <v>379</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <v>6</v>
-      </c>
-      <c r="O136">
-        <v>12</v>
-      </c>
-      <c r="P136" t="s">
+      <c r="O131" s="3">
+        <v>17</v>
+      </c>
+      <c r="P131" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="Q136" t="str">
-        <f>CONCATENATE("public Element ", A136, " { get; private set; } // ",B136," - Atomic Number ", C136)</f>
-        <v>public Element Nh { get; private set; } // Nihonium - Atomic Number 113</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C137" s="3">
-        <v>113</v>
-      </c>
-      <c r="D137" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F137" s="3">
-        <v>0</v>
-      </c>
-      <c r="G137" s="3">
-        <v>0</v>
-      </c>
-      <c r="H137" s="3">
-        <v>0</v>
-      </c>
-      <c r="I137" s="3">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="N137" s="3">
-        <v>6</v>
-      </c>
-      <c r="O137" s="3">
-        <v>12</v>
-      </c>
-      <c r="P137" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q137" s="3" t="str">
-        <f>CONCATENATE("public Element ", A137, " { get; private set; } // ",B137," - Atomic Number ", C137)</f>
-        <v>public Element Uut { get; private set; } // Ununtrium - Atomic Number 113</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>397</v>
-      </c>
-      <c r="B138" t="s">
-        <v>395</v>
-      </c>
-      <c r="C138">
-        <v>114</v>
-      </c>
-      <c r="D138" t="b">
-        <v>0</v>
-      </c>
-      <c r="E138" t="s">
-        <v>379</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <v>6</v>
-      </c>
-      <c r="O138">
-        <v>13</v>
-      </c>
-      <c r="P138" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q138" t="str">
-        <f>CONCATENATE("public Element ", A138, " { get; private set; } // ",B138," - Atomic Number ", C138)</f>
-        <v>public Element Fl { get; private set; } // Flerovium - Atomic Number 114</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C139" s="3">
-        <v>114</v>
-      </c>
-      <c r="D139" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F139" s="3">
-        <v>0</v>
-      </c>
-      <c r="G139" s="3">
-        <v>0</v>
-      </c>
-      <c r="H139" s="3">
-        <v>0</v>
-      </c>
-      <c r="I139" s="3">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="N139" s="3">
-        <v>6</v>
-      </c>
-      <c r="O139" s="3">
-        <v>13</v>
-      </c>
-      <c r="P139" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q139" s="3" t="str">
-        <f>CONCATENATE("public Element ", A139, " { get; private set; } // ",B139," - Atomic Number ", C139)</f>
-        <v>public Element Uuq { get; private set; } // Ununquadium - Atomic Number 114</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>427</v>
-      </c>
-      <c r="B140" t="s">
-        <v>431</v>
-      </c>
-      <c r="C140">
-        <v>115</v>
-      </c>
-      <c r="D140" t="b">
-        <v>0</v>
-      </c>
-      <c r="E140" t="s">
-        <v>379</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <v>6</v>
-      </c>
-      <c r="O140">
-        <v>14</v>
-      </c>
-      <c r="P140" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q140" t="str">
-        <f>CONCATENATE("public Element ", A140, " { get; private set; } // ",B140," - Atomic Number ", C140)</f>
-        <v>public Element Mc { get; private set; } // Moscovium - Atomic Number 115</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C141" s="3">
-        <v>115</v>
-      </c>
-      <c r="D141" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F141" s="3">
-        <v>0</v>
-      </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
-      <c r="H141" s="3">
-        <v>0</v>
-      </c>
-      <c r="I141" s="3">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="N141" s="3">
-        <v>6</v>
-      </c>
-      <c r="O141" s="3">
-        <v>14</v>
-      </c>
-      <c r="P141" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q141" s="3" t="str">
-        <f>CONCATENATE("public Element ", A141, " { get; private set; } // ",B141," - Atomic Number ", C141)</f>
-        <v>public Element Uup { get; private set; } // Ununpentium - Atomic Number 115</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>398</v>
-      </c>
-      <c r="B142" t="s">
-        <v>396</v>
-      </c>
-      <c r="C142">
-        <v>116</v>
-      </c>
-      <c r="D142" t="b">
-        <v>0</v>
-      </c>
-      <c r="E142" t="s">
-        <v>379</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="N142">
-        <v>6</v>
-      </c>
-      <c r="O142">
-        <v>15</v>
-      </c>
-      <c r="P142" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q142" t="str">
-        <f>CONCATENATE("public Element ", A142, " { get; private set; } // ",B142," - Atomic Number ", C142)</f>
-        <v>public Element Lv { get; private set; } // Livermorium - Atomic Number 116</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C143" s="3">
-        <v>116</v>
-      </c>
-      <c r="D143" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F143" s="3">
-        <v>0</v>
-      </c>
-      <c r="G143" s="3">
-        <v>0</v>
-      </c>
-      <c r="H143" s="3">
-        <v>0</v>
-      </c>
-      <c r="I143" s="3">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="N143" s="3">
-        <v>6</v>
-      </c>
-      <c r="O143" s="3">
-        <v>15</v>
-      </c>
-      <c r="P143" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q143" s="3" t="str">
-        <f>CONCATENATE("public Element ", A143, " { get; private set; } // ",B143," - Atomic Number ", C143)</f>
-        <v>public Element Uuh { get; private set; } // Ununhexium - Atomic Number 116</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>428</v>
-      </c>
-      <c r="B144" t="s">
-        <v>432</v>
-      </c>
-      <c r="C144">
-        <v>117</v>
-      </c>
-      <c r="D144" t="b">
-        <v>0</v>
-      </c>
-      <c r="E144" t="s">
-        <v>379</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <v>6</v>
-      </c>
-      <c r="O144">
-        <v>16</v>
-      </c>
-      <c r="P144" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q144" t="str">
-        <f>CONCATENATE("public Element ", A144, " { get; private set; } // ",B144," - Atomic Number ", C144)</f>
-        <v>public Element Ts { get; private set; } // Tennessine - Atomic Number 117</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C145" s="3">
-        <v>117</v>
-      </c>
-      <c r="D145" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0</v>
-      </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="3">
-        <v>0</v>
-      </c>
-      <c r="I145" s="3">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="N145" s="3">
-        <v>6</v>
-      </c>
-      <c r="O145" s="3">
-        <v>16</v>
-      </c>
-      <c r="P145" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q145" s="3" t="str">
-        <f>CONCATENATE("public Element ", A145, " { get; private set; } // ",B145," - Atomic Number ", C145)</f>
-        <v>public Element Uus { get; private set; } // Ununseptium - Atomic Number 117</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>429</v>
-      </c>
-      <c r="B146" t="s">
-        <v>433</v>
-      </c>
-      <c r="C146">
-        <v>118</v>
-      </c>
-      <c r="D146" t="b">
-        <v>0</v>
-      </c>
-      <c r="E146" t="s">
-        <v>379</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="N146">
-        <v>6</v>
-      </c>
-      <c r="O146">
-        <v>17</v>
-      </c>
-      <c r="P146" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q146" t="str">
-        <f>CONCATENATE("public Element ", A146, " { get; private set; } // ",B146," - Atomic Number ", C146)</f>
-        <v>public Element Og { get; private set; } // Oganesson - Atomic Number 118</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C147" s="3">
-        <v>118</v>
-      </c>
-      <c r="D147" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F147" s="3">
-        <v>0</v>
-      </c>
-      <c r="G147" s="3">
-        <v>0</v>
-      </c>
-      <c r="H147" s="3">
-        <v>0</v>
-      </c>
-      <c r="I147" s="3">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="N147" s="3">
-        <v>6</v>
-      </c>
-      <c r="O147" s="3">
-        <v>17</v>
-      </c>
-      <c r="P147" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q147" s="3" t="str">
-        <f>CONCATENATE("public Element ", A147, " { get; private set; } // ",B147," - Atomic Number ", C147)</f>
+      <c r="Q131" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>public Element Uuo { get; private set; } // Ununoctium - Atomic Number 118</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M141"/>
-  <sortState ref="A2:Q147">
-    <sortCondition ref="C2:C147"/>
-    <sortCondition ref="A2:A147"/>
+  <autoFilter ref="A1:M125"/>
+  <sortState ref="A2:Q131">
+    <sortCondition ref="C2:C131"/>
+    <sortCondition ref="A2:A131"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
